--- a/biology/Médecine/Bayard_Taylor_Horton/Bayard_Taylor_Horton.xlsx
+++ b/biology/Médecine/Bayard_Taylor_Horton/Bayard_Taylor_Horton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bayard Taylor Horton, né le 6 décembre 1895 à Gate City, Virginie, mort le 6 juillet 1980 à Rochester, Minnesota, est un médecin américain, découvreur de l'artérite à cellules géantes dite maladie de Horton en 1932.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études médicales à l'Université de Virginie où il obtient son diplôme en 1922. Il est interne de l'hôpital universitaire de Virginie, avant d'être nommé à un poste de médecin et professeur de biologie à l'Emory and Henry College, en Virginie. En 1925 il est engagé comme résident en médecine par la Mayo Foundation, à Rochester, Minnesota, et le reste de sa carrière se déroulera à la Mayo Clinic. 
 Ses domaines de prédilection étaient l'hypertension artérielle, et les maladies vasculaires. Il a laissé son nom à deux affections responsables de céphalées, la céphalée histaminique de Horton (mieux connue sous le nom de « cluster headache » ou algie vasculaire de la face) et l'artérite temporale gigantocellulaire.
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Horton BT, Magath TB, Brown GE. « An undescribed form of arteritis of the temporal arteries » Proc Staff Meet Mayo Clin. 1932; 7: 700-701.
 « A new syndrome of vascular headache: results of treatment with histamine: preliminary report » With A. R. MacLean and W. M. Craig. Mayo Clinic Proceedings, Rochester, Minnesota 1939, 14: 257-260.
